--- a/results.xlsx
+++ b/results.xlsx
@@ -510,7 +510,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" s="0">
         <v>1</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" s="0">
         <v>1</v>
@@ -1041,12 +1041,12 @@
         <v>1</v>
       </c>
       <c r="B123" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B124" s="0">
         <v>1</v>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B125" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1582,7 +1582,7 @@
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B191" s="0">
         <v>1</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B192" s="0">
         <v>1</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B193" s="0">
         <v>1</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B194" s="0">
         <v>1</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B195" s="0">
         <v>1</v>
@@ -2038,90 +2038,90 @@
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B248" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B249" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B250" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B251" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B252" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B253" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B254" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B255" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B256" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B257" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B258" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="B259" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="B260" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="B261" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="B262" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="B263" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="B264" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="B265" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="B266" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="B267" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="B268" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="B269" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="B270" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="B271" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="B272" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="B273" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="B274" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="B275" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="B276" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="B277" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="B278" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="B279" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="B280" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="B281" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="B282" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="B283" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="B284" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="B285" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="B286" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="B287" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="B288" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="B289" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="B290" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="B291" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="B292" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="B293" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="B294" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="B295" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="B296" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="B297" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="B298" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="B299" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="B300" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="B301" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="B302" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="B303" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="B304" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="B305" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="B306" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="B307" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="B308" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="B309" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="B310" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="B311" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="B312" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="B313" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="B314" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="B315" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="B316" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="B317" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="B318" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="B319" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="B320" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="B321" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="B322" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="B323" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="B324" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -2657,551 +2657,551 @@
         <v>0</v>
       </c>
       <c r="B325" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B326" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B327" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B328" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B329" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B330" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B331" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B332" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B333" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B334" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B335" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B336" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B337" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B338" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B339" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B340" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B341" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B342" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B343" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B344" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B345" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B346" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B347" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B348" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B349" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B350" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B351" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B352" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B353" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B354" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B355" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B356" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B357" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B358" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B359" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B360" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B361" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B362" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B363" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B364" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B365" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B366" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B367" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B368" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B369" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B370" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B371" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B372" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B373" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B374" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B375" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B376" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B377" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B378" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B379" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B380" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B381" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B382" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B383" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B384" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B385" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B386" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B387" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B388" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B389" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B390" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B391" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B392" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B393" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="B394" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="B395" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="B396" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="B397" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="B398" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="B399" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="B400" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="B401" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="B402" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="B403" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="B404" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="B405" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="B406" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="B407" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="B408" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="B409" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="B410" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="B411" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="B412" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="B413" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="B414" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="B415" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="B416" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="B417" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="B418" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="B419" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="B420" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="B421" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="B422" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="B423" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="B424" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="B425" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="B426" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="B427" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="B428" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="B429" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="B430" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="B431" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="B432" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="B433" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="B434" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="B435" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="B436" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="B437" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="B438" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="B439" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="B440" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="B441" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="B442" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="B443" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="B444" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="B445" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="B446" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="B447" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="B448" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="B449" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="B450" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="B451" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="B452" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="B453" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="B454" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="B455" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="B456" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="B457" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="B458" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="B459" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="B460" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="B461" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -3753,567 +3753,567 @@
         <v>0</v>
       </c>
       <c r="B462" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B463" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B464" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B465" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B466" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B467" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B468" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B469" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B470" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B471" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B472" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B473" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B474" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B475" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B476" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B477" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B478" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B479" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B480" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B481" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B482" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B483" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B484" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B485" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B486" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B487" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B488" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B489" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B490" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B491" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B492" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B493" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B494" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B495" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B496" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B497" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B498" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B499" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B500" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B501" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B502" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B503" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B504" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B505" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B506" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B507" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B508" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B509" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B510" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B511" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B512" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B513" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B514" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B515" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B516" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B517" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B518" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B519" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B520" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B521" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B522" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B523" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B524" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B525" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B526" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B527" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B528" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B529" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B530" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B531" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B532" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="B533" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="B534" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="B535" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="B536" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="B537" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="B538" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="B539" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="B540" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="B541" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="B542" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="B543" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="B544" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="B545" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="B546" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="B547" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -4441,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="B548" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="B549" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="B550" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="B551" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="B552" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="B553" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="B554" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="B555" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="B556" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="B557" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -4521,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="B558" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="B559" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="B560" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="B561" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="B562" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
@@ -4561,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="B563" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="B564" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="B565" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="B566" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="B567" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="B568" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="B569" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="B570" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="B571" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="B572" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="B573" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="B574" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="B575" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="B576" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="B577" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="B578" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="B579" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="B580" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="B581" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="B582" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="B583" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="B584" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="B585" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="B586" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="B587" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="B588" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="B589" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="B590" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="B591" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="B592" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="B593" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="B594" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="B595" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="B596" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="B597" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="B598" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="B599" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="B600" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="B601" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -4873,591 +4873,591 @@
         <v>0</v>
       </c>
       <c r="B602" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B603" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B604" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B605" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B606" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B607" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B608" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B609" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B610" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B611" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B612" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B613" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B614" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B615" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B616" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B617" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B618" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B619" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B620" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B621" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B622" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B623" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B624" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B625" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B626" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B627" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B628" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B629" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B630" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B631" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B632" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B633" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B634" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B635" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B636" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B637" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B638" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B639" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B640" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B641" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B642" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B643" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B644" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B645" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B646" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B647" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B648" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B649" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B650" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B651" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B652" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B653" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B654" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B655" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B656" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B657" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B658" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B659" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B660" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B661" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B662" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B663" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B664" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B665" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B666" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B667" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B668" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B669" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B670" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B671" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B672" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B673" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B674" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B675" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="B676" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="B677" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="B678" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="B679" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="B680" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="B681" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="B682" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="B683" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="B684" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="B685" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="B686" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687">
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="B687" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688">
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="B688" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="B689" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="B690" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="B691" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="B692" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693">
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="B693" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694">
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="B694" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695">
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="B695" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="B696" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="B697" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="B698" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699">
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="B699" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
@@ -5657,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="B700" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701">
@@ -5665,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="B701" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="B702" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="B703" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
@@ -5689,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="B704" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="B705" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="B706" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="B707" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="B708" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="B709" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="B710" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
@@ -5745,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="B711" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="B712" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="B713" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="B714" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="B715" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="B716" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="B717" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="B718" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="B719" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="B720" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="B721" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
@@ -5833,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="B722" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
@@ -5841,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="B723" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724">
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="B724" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="B725" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="B726" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="B727" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
@@ -5881,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="B728" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729">
@@ -5889,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="B729" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730">
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="B730" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="B731" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732">
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="B732" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="B733" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734">
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="B734" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735">
@@ -5937,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="B735" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736">
@@ -5945,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="B736" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737">
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="B737" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738">
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="B738" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739">
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="B739" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740">
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="B740" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741">
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="B741" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742">
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="B742" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743">
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="B743" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="B744" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745">
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="B745" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746">
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="B746" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747">
@@ -6033,580 +6033,580 @@
         <v>0</v>
       </c>
       <c r="B747" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B748" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B749" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B750" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B751" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B752" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B753" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B754" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B755" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B756" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B757" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B758" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B759" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B760" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B761" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B762" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B763" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B764" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B765" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B766" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B767" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B768" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B769" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B770" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B771" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B772" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B773" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B774" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B775" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B776" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B777" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B778" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B779" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B780" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B781" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B782" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B783" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B784" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B785" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B786" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B787" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B788" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B789" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B790" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B791" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B792" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B793" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B794" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B795" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B796" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B797" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B798" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B799" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B800" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B801" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B802" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B803" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B804" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B805" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B806" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B807" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B808" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B809" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B810" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B811" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B812" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B813" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B814" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B815" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B816" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B817" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B818" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B819" s="0">
         <v>0</v>
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="B820" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821">
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="B821" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822">
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="B822" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823">
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="B823" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824">
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="B824" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825">
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="B825" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826">
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="B826" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827">
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="B827" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828">
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="B828" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829">
@@ -6689,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="B829" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830">
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="B830" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831">
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="B831" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832">
@@ -6713,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="B832" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833">
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="B833" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="B834" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835">
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="B835" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836">
@@ -6745,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="B836" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837">
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="B837" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838">
@@ -6761,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="B838" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839">
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="B839" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840">
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="B840" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841">
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="B841" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842">
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="B842" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843">
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="B843" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844">
@@ -6809,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="B844" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845">
@@ -6817,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="B845" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846">
@@ -6825,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="B846" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847">
@@ -6833,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="B847" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848">
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="B848" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849">
